--- a/Income/HUM_inc.xlsx
+++ b/Income/HUM_inc.xlsx
@@ -1844,16 +1844,16 @@
         <v>0.2014</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.2048</v>
+        <v>0.2057</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>0.1936</v>
+        <v>0.1944</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>0.1731</v>
+        <v>0.1739</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.1692</v>
+        <v>0.17</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0.1778</v>
@@ -1971,16 +1971,16 @@
         <v>0.0647</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0763</v>
+        <v>0.0766</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.0669</v>
+        <v>0.0672</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.0505</v>
+        <v>0.0507</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.049</v>
+        <v>0.0492</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.0533</v>
@@ -2098,16 +2098,16 @@
         <v>0.0597</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0757</v>
+        <v>0.076</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.0676</v>
+        <v>0.0679</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>0.0506</v>
+        <v>0.0508</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0.053</v>
+        <v>0.0533</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0.0526</v>
@@ -2225,16 +2225,16 @@
         <v>0.0437</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.0557</v>
+        <v>0.0559</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.0495</v>
+        <v>0.0497</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.0386</v>
+        <v>0.0388</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.0415</v>
+        <v>0.0417</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.0406</v>
@@ -2352,16 +2352,16 @@
         <v>0.0606</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.0666</v>
+        <v>0.0669</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.0796</v>
+        <v>0.08</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0601</v>
+        <v>0.0604</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>0.0698</v>
+        <v>0.0701</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0.0599</v>
@@ -3368,16 +3368,16 @@
         <v>0.0727</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.0843</v>
+        <v>0.0846</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>0.0753</v>
+        <v>0.0757</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.0591</v>
+        <v>0.0594</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>0.0578</v>
+        <v>0.0581</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0.0624</v>
@@ -3495,16 +3495,16 @@
         <v>0.0732</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>0.0786</v>
+        <v>0.079</v>
       </c>
       <c r="E27" s="0" t="n">
-        <v>0.0918</v>
+        <v>0.0921</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.0718</v>
+        <v>0.0721</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>0.0811</v>
+        <v>0.0814</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0.0707</v>
